--- a/program_sr/vacCalibration.xlsx
+++ b/program_sr/vacCalibration.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -674,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,15 +768,15 @@
         <v>200</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D10" si="0">B4*C4</f>
+        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
         <v>92400</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E10" si="1" xml:space="preserve"> B4*B4</f>
+        <f t="shared" ref="E4:E7" si="1" xml:space="preserve"> B4*B4</f>
         <v>213444</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F10" si="2">C4*C4</f>
+        <f t="shared" ref="F4:F7" si="2">C4*C4</f>
         <v>40000</v>
       </c>
     </row>
@@ -900,4 +901,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>479</v>
+      </c>
+      <c r="C3" s="5">
+        <v>220</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>105380</v>
+      </c>
+      <c r="E3" s="5">
+        <f xml:space="preserve"> B3*B3</f>
+        <v>229441</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C3*C3</f>
+        <v>48400</v>
+      </c>
+      <c r="H3">
+        <f>COUNT(B3:B7)</f>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f>SUM(B3:B7)</f>
+        <v>2361</v>
+      </c>
+      <c r="J3">
+        <f>SUM(C3:C7)</f>
+        <v>900</v>
+      </c>
+      <c r="K3">
+        <f>SUM(D3:D7)</f>
+        <v>425700</v>
+      </c>
+      <c r="L3">
+        <f>SUM(E3:E7)</f>
+        <v>1114995</v>
+      </c>
+      <c r="M3">
+        <f>SUM(F3:F7)</f>
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>476</v>
+      </c>
+      <c r="C4" s="5">
+        <v>200</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D7" si="0">B4*C4</f>
+        <v>95200</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E7" si="1" xml:space="preserve"> B4*B4</f>
+        <v>226576</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F7" si="2">C4*C4</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>473</v>
+      </c>
+      <c r="C5" s="5">
+        <v>180</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>85140</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>223729</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>32400</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>468</v>
+      </c>
+      <c r="C6" s="5">
+        <v>160</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>74880</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>219024</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>25600</v>
+      </c>
+      <c r="I6">
+        <f>I3*I3</f>
+        <v>5574321</v>
+      </c>
+      <c r="J6">
+        <f>J3*J3</f>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>465</v>
+      </c>
+      <c r="C7" s="5">
+        <v>140</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>65100</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>216225</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(H3*K3-I3*J3)/(H3*L3-I6)</f>
+        <v>5.5045871559633026</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="I9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="4">
+        <f>(J3-J8*I3)/H3</f>
+        <v>-2419.2660550458713</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>